--- a/src/test/java/package2/loginData.xlsx
+++ b/src/test/java/package2/loginData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078C6A0-16DC-4E75-8F94-133D54AF7C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44888EBA-BDF6-47A0-8F60-B2E6AD015DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -28,23 +28,35 @@
     <t>password</t>
   </si>
   <si>
-    <t xml:space="preserve">admin@yourstore.com </t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>adm</t>
-  </si>
-  <si>
-    <t>adm@yourstore.com</t>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>adm2</t>
+  </si>
+  <si>
+    <t>admin3</t>
+  </si>
+  <si>
+    <t>adm4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin1@yourstore.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin2@yourstore.com </t>
+  </si>
+  <si>
+    <t>adm3@yourstore.com</t>
+  </si>
+  <si>
+    <t>adm4@yourstore.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,14 +83,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,10 +135,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -455,7 +459,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,43 +469,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/package2/loginData.xlsx
+++ b/src/test/java/package2/loginData.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44888EBA-BDF6-47A0-8F60-B2E6AD015DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1360D6ED-FBA0-483B-8231-640B82D58BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic" sheetId="2" r:id="rId2"/>
+    <sheet name="Map" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -50,6 +52,42 @@
   </si>
   <si>
     <t>adm4@yourstore.com</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Djenga</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Doc ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>EmpID</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
   </si>
 </sst>
 </file>
@@ -130,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +179,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,4 +557,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2FFE5B-C036-4587-89BB-B93CD36FC7EB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7847</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{ECCA4481-6A86-4ED1-B548-A42F0E43929A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{475139F1-8B8C-4289-940B-0BEEB7B24B71}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{EF7990BF-BFD2-4DEC-A7BF-44B1C5836714}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{67A3480B-2BC2-4EE0-B33C-BA61B762EA3F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4391A81B-48A2-4886-B629-010E284BA077}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>8555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>7955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>3698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>